--- a/Data Collection/Persons/Jürg Halter/Halter_all_2021.xlsx
+++ b/Data Collection/Persons/Jürg Halter/Halter_all_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Jürg Halter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaerlacher/Documents/GitHub/COINS_SwissTribeleaders/Data Collection/Persons/Jürg Halter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{520AB8C7-16FA-48F5-BFE2-7A54F43A3E66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{666754FB-5B21-4716-94CE-CDFF6235D344}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716390E6-FFDF-E244-8F7C-D510F3CB5CC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>title</t>
   </si>
@@ -172,60 +172,6 @@
 Wenn Sie nach 10 Minuten kein E-Mail erhalten haben, prüfen Sie bitte Ihren SPAM Ordner und die Angabe Ihrer E-Mail-Adresse.</t>
   </si>
   <si>
-    <t>NZZ Briefing</t>
-  </si>
-  <si>
-    <t>Erst Rapper, jetzt Dichter: Als Rapper provozierte Jürg Halter alias Kutti MC die Hip-Hop-Szene, heute ist er ein vielbeachteter Schriftsteller und Dichter.</t>
-  </si>
-  <si>
-    <t>https://www.nzz.ch/briefing/briefing-am-donnerstagmorgen-ld.1598793</t>
-  </si>
-  <si>
-    <t>Briefing am Donnerstagmorgen Massentests an Zürcher Schulen, neuer US-Aussenminister Blinken und unsere Empfehlungen: Das Wichtigste für den Start in den Tag.
-«Wir können niemanden zwingen, sich testen zu lassen», sagte Yves Krismer, Schulpräsident von Volketswil, auf Anfrage der NZZ.
-Im Zentrum der Anklage stehen Beratungshonorare für externe Firmen, für die Frick nicht die erforderlichen Regierungsbeschlüsse eingeholt haben soll.
-Im Zentrum der Anklage stehen Beratungshonorare für externe Firmen, für die Frick nicht die erforderlichen Regierungsbeschlüsse eingeholt haben soll.
-Das «NZZ Format» mit dem Titel «Comeback des Analogen: die Entdeckung der Langsamkeit» läuft heute um 23 Uhr auf SRF 1.</t>
-  </si>
-  <si>
-    <t>Quiz zu Berner Krimi-Ikone – Wie gut kennen Sie Friedrich ...</t>
-  </si>
-  <si>
-    <t>Berner Zeitung</t>
-  </si>
-  <si>
-    <t>AboBuch über Berner IkoneWie Anna Seiler das Inselspital gründete · Der Berner Dichter Jürg Halter posiert im Aarbergerhof in Bern mit Wein und Kerzen.</t>
-  </si>
-  <si>
-    <t>https://www.bernerzeitung.ch/wie-gut-kennen-sie-friedrich-glauser-512921347284</t>
-  </si>
-  <si>
-    <t>Quiz zu Berner Krimi-Ikone – Wie gut kennen Sie Friedrich Glauser?
-Im neuen Buch «Jeder sucht sein Paradies …» erzählen Briefe und Berichte von Friedrich Glausers aufreibendem Leben.
-Foto: KeystoneFriedrich Glausers grosse Kriminalromane «Matto regiert» und «Der Chinese» haben viele Menschen mit Begeisterung gelesen.
-Die Herausgeberin Christa Baumberger hat Briefe, Berichte sowie Gesprächsprotokolle von und über Friedrich Glauser gesammelt.
-So liest man gespannt, wie Glauser sich nach aussen präsentiert.</t>
-  </si>
-  <si>
-    <t>Schweinebetriebe sind kein öffentlicher Raum – zum Wohl der ...</t>
-  </si>
-  <si>
-    <t>BauernZeitung</t>
-  </si>
-  <si>
-    <t>Die Vierbeiner sind sensible Wesen. Für gutes Tierwohl und hohe Biosicherheit hat der Halter zu sorgen. Am Strickhof Schweinetag wurde erläutert, wie man etwa ...</t>
-  </si>
-  <si>
-    <t>https://www.bauernzeitung.ch/artikel/schweinebetriebe-sind-kein-oeffentlicher-raum-zum-wohl-der-tiere</t>
-  </si>
-  <si>
-    <t>Haben Sie noch kein Abo der BauernZeitung?
-Ein Produkt auswählen und bestellenSie sind bereits BauernZeitungs-Abonnent - haben aber noch kein Online-Login?
-Die sofortige Freischaltung anfordernHaben Sie Ihr Passwort vergessen?
-Passwort vergessenHaben Sie Fragen?
-Infohotline: 031 958 33 33Montag bis Freitag 8:00 - 12:00 Uhr und13:30 - 17:00 Uhr</t>
-  </si>
-  <si>
     <t>Jürg Halter präsentiert seinen neuen Gedichtband - «Gemeinsame Sprache»</t>
   </si>
   <si>
@@ -264,22 +210,6 @@
 Es sind nicht die starken Werte, es ist nicht das Empowerment, es ist gerade die Schwäche der Menschen, es ist gerade ihre Bedürftigkeit, es ist gerade ihre Ambivalenz, die sie zu Kulturleistungen inspiriert.</t>
   </si>
   <si>
-    <t>Coronavirus - «Der Anteil der Variante wird grösser – und es ...</t>
-  </si>
-  <si>
-    <t>Antwort von Thomas Halter (Thomas Halter) Donnerstag, 11. ... Zustimmen dem Kommentar zustimmen(114); Kommentar von Juerg Wyss (PandeMathiker) ...</t>
-  </si>
-  <si>
-    <t>https://www.srf.ch/news/international/coronavirus-der-anteil-der-variante-wird-groesser-und-es-passiert-nichts</t>
-  </si>
-  <si>
-    <t>Interessanterweise gibt es jedoch keine höheren krankmachenden Eigenschaften, keine höhere Sterblichkeit und auch keine Veränderung in der Altersstruktur der Erkrankten.
-Aufgrund der erhöhten Übertragbarkeit war zu erwarten, dass der Anteil der Variante B.1.1.7 an allen Infektionen stetig ansteigt.
-Es gibt Länder, die nach einem schlimmen Peak harte Massnahmen ergriffen haben, wie England und Irland, und die Massnahmen haben gewirkt, trotz Varianten.
-Gleichzeitig wird der Anteil der Variante immer grösser – und es passiert nichts.
-In Frankreich zum Beispiel sind die Massnahmen weniger streng, die Varianten nehmen signifikant zu und die Fallzahlen nur leicht.</t>
-  </si>
-  <si>
     <t>Index of /kultur</t>
   </si>
   <si>
@@ -287,38 +217,6 @@
   </si>
   <si>
     <t>https://www.tageswoche.ch/kultur/?C=M;O=A</t>
-  </si>
-  <si>
-    <t>Inventx migriert die Rothschild &amp; Co Bank AG in ihre «Swiss Financial Cloud»</t>
-  </si>
-  <si>
-    <t>Urs Halter Seit dem 1. März 2021 leitet Urs Halter das InventxLab. (Foto: Inventx). 31.März 2021 ... Jürg Hunziker gibt per 1. April 2021 seine Funktion als CEO ...</t>
-  </si>
-  <si>
-    <t>https://www.moneycab.com/it/inventx-migriert-die-rothschild-co-bank-ag-in-ihre-swiss-financial-cloud/</t>
-  </si>
-  <si>
-    <t>Chur – Die Rothschild &amp; Co Bank AG lagert einen Grossteil ihrer Informatik an die Finanz-IT-Spezialistin Inventx aus.
-Dank Inventx kann die Rothschild &amp; Co Bank AG zudem das Potenzial ihrer Avaloq-Bankenapplikation voll ausschöpfen.
-Die Rothschild &amp; Co Bank AG ist hierfür nun in die spezifisch für die Finanz- und Versicherungsindustrie entwickelte ix.Cloud von Inventx migriert.
-Die Lösung von Inventx erlaubt es zudem, die von der Bank verwendete Kernbankenlösung von Avaloq nun auch «as a Service» zu nutzen.
-Der neue Informatikpartner der Rothschild &amp; Co Bank AG sorgt darüber hinaus für die globale Anbindung zur Rothschild &amp; Co Gruppe und deren Azure-Plattform.</t>
-  </si>
-  <si>
-    <t>Anna-Katharina Diener und die Kunst des Vorlesens</t>
-  </si>
-  <si>
-    <t>Schriftsteller Jürg Halter in Bern. Kultur-Chamäleon Jürg Halter. «Auf der Bühne habe ich nie Angst. Im Leben schon.» Jürg Halter passt in keine Schublade.</t>
-  </si>
-  <si>
-    <t>https://www.beobachter.ch/gesellschaft/anna-katharina-diener-die-kunst-des-vorlesens</t>
-  </si>
-  <si>
-    <t>«Die Sehnsucht nach Hören nimmt zu in unserer Zeit, in der wir von Bildern geflutet werden», sagt Esther Schneider, Leiterin der Literaturredaktion beim Schweizer Radio und Fernsehen SRF.
-Zu den Bildern, die der Text im Kopf entstehen lässt, geselle sich die Wirkung der Stimme hinzu.
-«Viele spüren den Rhythmus und die Melodie der Sprache stärker, als wenn sie selber lesen», sagt Schneider.
-Die Vorleserin interpretiert das Werk des Autors wie die Geigerin das Stück des Komponisten.
-Gutes Vorlesen ist eine Kunst.»</t>
   </si>
   <si>
     <t>Benedict Wells im Interview – «Ich habe mit Sehnsucht ...</t>
@@ -356,41 +254,6 @@
 Damit kritisieren sie auch die Reaktion der FDP-Parteileitung, die sich gegen eine Sanktionierung ausgesprochen hat.</t>
   </si>
   <si>
-    <t>Poodemic: Das Hundekot-Problem in England hat jetzt einen Namen</t>
-  </si>
-  <si>
-    <t>NZZ Bellevue</t>
-  </si>
-  <si>
-    <t>«From pandemic to poodemic»: Wenn ein Haufen Hunde viele Hundehaufen machen. Jürg Zbinden; Entdecken; 23.2.2021. Die Zahl der Hundehalter hat ...</t>
-  </si>
-  <si>
-    <t>https://bellevue.nzz.ch/reisen-entdecken/poodemic-das-hundekot-problem-in-england-hat-jetzt-einen-namen-ld.1603176</t>
-  </si>
-  <si>
-    <t>«From pandemic to poodemic»: Wenn ein Haufen Hunde viele Hundehaufen machen Jürg ZbindenEntdecken Die Zahl der Hundehalter hat während der Pandemie zugenommen.
-Hunde sind von uns abhängig.
-Aber Hunde sind von uns abhängig, und alle, die ihren Hund lieben, sind auch abhängig von ihnen.
-(Bild: Getty Images)Neun Millionen Hunde bevölkern GrossbritanienWir ahnen es – das Problem sind nicht die Hunde, sondern wir sind es.
-Und wer doch das Gym vermisst, insbesondere das Laufband, kommt nun dank dem Haustier, das Auslauf braucht, auf seine Kosten.</t>
-  </si>
-  <si>
-    <t>TOGGENBURG-TICKER - Meldungen vom 11.Dezember bis 7.Februar | St.Galler Tagblatt</t>
-  </si>
-  <si>
-    <t>... in Gärten koten, ohne dass die Halterin oder der Halter die Hinterlassenschaft beseitigt. ... Jürg Forrer war während acht Jahren für das Ressort Infrastruktur ...</t>
-  </si>
-  <si>
-    <t>https://www.tagblatt.ch/ostschweiz/toggenburg/toggenburg-ticker-meldungen-vom-11dezember-bis-7februar-ld.2103941</t>
-  </si>
-  <si>
-    <t>TOGGENBURG-TICKER Meldungen vom 11.Dezember bis 7.Februar Stets aktuell informiert über die Geschehnisse in der Region Toggenburg: In unserem Toggenburg-Ticker finden Sie einen bunten Mix an News und unterhaltsamen Geschichten.
-Schülerinnen und Schüler der Mittel- und der Oberstufen aus dem Toggenburg sind Ende April zum Spielen eingeladen.
-Januar, 14:50 UhrWattwiler Gemeinderat hat Arbeiten für die Dreifachturnhalle und für die Schwimmbadsanierung vergebenDie Dreifachturnhalle Rietwis kann nicht nur für Sport, sondern auch für Events genutzt werden.
-Obwohl neue Tierbesitzer jeweils einen kleinen Unkostenbeitrag bezahlen, deckt dies nicht die Kosten, die für die Betreuung der Tiere benötigt werden.
-Wegen der knappen Schneedecke kann der Startknopf für den Pony- sowie für den Skilift allerdings noch nicht gedrückt werden.</t>
-  </si>
-  <si>
     <t>POESIE? JA, die existiert noch!</t>
   </si>
   <si>
@@ -410,58 +273,7 @@
 Jeder der zwischen 35 und 42 ist und genau zuhört, weiß, wie er sich fühlt oder welche Emotionen er durchmacht: Verlust und Gewinn.</t>
   </si>
   <si>
-    <t>Monster Chetwynd: eine Schamanin der Performance-Kunst</t>
-  </si>
-  <si>
     <t>NZZ</t>
-  </si>
-  <si>
-    <t>Drei Disziplinen und zwei Kulturen treffen aufeinander: Uwe Wittwer und Jürg Halter lassen sich zusammen mit der japanischen Keramikerin Aiko Watanabe zu ...</t>
-  </si>
-  <si>
-    <t>https://www.nzz.ch/feuilleton/monster-chetwynd-eine-schamanin-der-performance-kunst-ld.1603037</t>
-  </si>
-  <si>
-    <t>Diese Frau ist eine Schamanin – ihr Element ist die Performance-Kunst Monster Chetwynd teilt mit uns ihre Träume und Ängste und lädt uns auf eine Reise ins Absurde und Abgründige ein.
-Die Künstlerin Monster Chetwynd auf der Dachterrasse der Zürcher Hochschule der Künste auf dem Toni-Areal.
-Heute arbeitet Monster Chetwynd regelmässig für eigene Projekte mit der Mutter zusammen.
-Filme sind für sie eine grosse Inspirationsquelle, auch wenn sie der Filmindustrie kritisch gegenübersteht.
-Also kam der Name Marvin Gaye ins Spiel, der Musiker, der von seinem Vater, einem Priester, umgebracht worden war.</t>
-  </si>
-  <si>
-    <t>Berner Wölfin ist erlegt</t>
-  </si>
-  <si>
-    <t>Schweizer Bauer</t>
-  </si>
-  <si>
-    <t>Sie richteten auch mehrere Appelle an die Nutztierhalterinnen und -halter, den Schutz ihrer Tiere zu verbessern. Zwar verstärkte ein Teil der Nutztierhalter ...</t>
-  </si>
-  <si>
-    <t>https://www.schweizerbauer.ch/regionen/berner-woelfin-ist-erlegt/</t>
-  </si>
-  <si>
-    <t>– mileszDie Berner Wölfin mit dem Namen F78, welche in letzter Zeit zahlreiche Nutztiere riss, lebt nicht mehr.
-Ein Berner Wildhüter hat das Tier am Sonntag in der Region Gürbetal-Gantrisch abgeschossen, wie die Kantonsverwaltung am Montag mitteilte.
-Die Behörden gehen davon aus, dass es sich bei dem Tier um die Wölfin F78 handelt.
-Das Tier, das seit längerem Schlagzeilen macht, hat laut den Behörden inzwischen zu viele Nutztiere gerissen.
-Doch die Wölfin fand immer wieder ungenügend geschützte Tiere.</t>
-  </si>
-  <si>
-    <t>Design als Kulturgut: Es geht nicht ohne – und es ist überall</t>
-  </si>
-  <si>
-    <t>Jürg Zbinden 10.02.2021 ... und Jürg Halter lassen sich zusammen mit der japanischen Keramikerin Aiko Watanabe zu einem gemeinsamen Projekt inspirieren.</t>
-  </si>
-  <si>
-    <t>https://www.nzz.ch/feuilleton/design-als-kulturgut-es-geht-nicht-ohne-und-es-ist-ueberall-ld.1604511</t>
-  </si>
-  <si>
-    <t>Auch Design ist ein Kulturgut!
-Design wird vorschnell in die Lifestyle-Schublade gesteckt, weil das Materielle und das Kulturelle scheinbar nicht zusammengehen.
-Wie stark die Entwurfs- und Produktionsprozesse von Waren unsere Lebenswelt durchdringen und prägen, ist vielen Leuten nicht bewusst.
-Das ist zwar neu und nicht ideal, aber bei weitem nicht das Hauptproblem angesichts der gegenwärtigen Situation.
-Design entsteht immer aus einer Art Krise, Design ist die Veränderungsdisziplin per se.» Jetzt gehe es darum, bereit zu sein für den nächsten Entwicklungsschub.</t>
   </si>
   <si>
     <t>Was haben Gedichte mit Rap zu tun? Ein Ohr auf der Strasse ...</t>
@@ -483,54 +295,6 @@
 Für mich kann Schönheit und Wahrheit aber in allem zu finden sein: Im Rap, in der Literatur, in der Kunst.</t>
   </si>
   <si>
-    <t>Urs Halter leitet Inventx Lab, Damir Bogdan wird ...</t>
-  </si>
-  <si>
-    <t>Swiss IT Reseller</t>
-  </si>
-  <si>
-    <t>April 2021 - Inventx meldet, für seine Tochterfirma Inventx Lab mit Sitz in St. Gallen Urs Halter (Bild, links) zum Leiter berufen zu haben. Ausserdem konnte ...</t>
-  </si>
-  <si>
-    <t>https://www.itreseller.ch/Artikel/93565/Urs_Halter_leitet_Inventx_Lab_Damir_Bogdan_wird_Verwaltungsrat.html</t>
-  </si>
-  <si>
-    <t>Urs Halter leitet Inventx Lab, Damir Bogdan wird VerwaltungsratUrs Halter leitet Inventx Lab, Damir Bogdan wird Verwaltungsrat(Quelle: Inventx)Link auf diesen Artikel als E-Mail versenden X1.
-April 2021 - Inventx meldet, für seine Tochterfirma Inventx Lab mit Sitz in St. Gallen Urs Halter (Bild, links) zum Leiter berufen zu haben.
-(mw) IT-Dienstleister Inventx meldet, für sein Tochterunternehmen Inventx Lab mit Sitz in St. Gallen Urs Halter als Leiter berufen zu haben.
-Die Stelle des Leiters von Inventx Lab wurde neu geschaffen, Urs Halter war zuvor als Bereichsleiter Technology Services &amp; Solutions bei Inventx beschäftigt und bereits in den Aufbau von Inventx Lab involviert.
-März 2019 - Mit Urs Halter kann Inventx, ein Schweizer IT-Dienstleister für die Finanzindustrie, einen erfahrenen Branchenfachmann für die Geschäftsleitung gewinnen.</t>
-  </si>
-  <si>
-    <t>... Anna Rosenwasser und Jürg Halter unter der Moderation von Martin Meyer beim nächsten NZZ-Podium. Die Veranstaltung findet online statt, am Donnerstag, ...</t>
-  </si>
-  <si>
-    <t>https://www.nzz.ch/briefing/briefing-am-wochenende-ld.1613759</t>
-  </si>
-  <si>
-    <t>Briefing am Wochenende Corona-Selbsttests in der Schweiz, das Rahmenabkommen mit der EU und unsere Empfehlungen: Das Wichtigste für den Start in den Tag.
-Einige Covid-Fälle mit der indischen Mutante seien bereits in Deutschland und der EU aufgetreten.
-Einige Covid-Fälle mit der indischen Mutante seien bereits in Deutschland und der EU aufgetreten.
-Während die SVP glaubt, das Abkommen sei nun definitiv gescheitert, freuen sich die FDP und die Wirtschaft, dass die Gespräche weitergehen.
-Zum BerichtSo ordnen wir es ein: Die Anzeichen verdichten sich, dass sich die Schweiz und die EU beim Rahmenabkommen nicht einigen.</t>
-  </si>
-  <si>
-    <t>Autolenker fährt nach Unfall mit Traktor weiter</t>
-  </si>
-  <si>
-    <t>Das Fahrzeug und der Halter konnten in der Folge ermittelt werden. ... Jacqueline GraberDer 4-jährige Hengst Tassilo mit Besitzer Jürg Schenk, Buttisholz LU.</t>
-  </si>
-  <si>
-    <t>https://www.schweizerbauer.ch/regionen/suedostschweiz/autolenker-faehrt-nach-unfall-mit-traktor-weiter/</t>
-  </si>
-  <si>
-    <t>– Kapo GLIn Glarus kam es am Donnerstagabend zu einem Auffahrunfall zwischen einem Auto und einem Traktor.
-Der Autolenker fuhr einfach weiter.
-Gemäss Polizeiangaben war ein Autofahrer gegen 21.15 Uhr zwischen Netstal und Glarus unterwegs.
-Nach der Auffahrkollision fuhr der Autofahrer weiter, ohne sich um den Unfall zu kümmern.
-Das Fahrzeug und der Halter konnten in der Folge ermittelt werden.</t>
-  </si>
-  <si>
     <t>NZZ-Podium: Debatte über Cancel-Culture und Identitätspolitik</t>
   </si>
   <si>
@@ -545,18 +309,6 @@
 Konkret ging es um ein brisantes Phänomen, das zunehmend von den USA nach Europa schwappt und ein verwobenes Bündel von Sub-Erscheinungen mit sich bringt: die Cancel-Culture, die Political Correctness, die Identitätspolitik.
 Die Aktivistin warf die Frage auf, ob wir eigentlich alle das Gleiche meinen, wenn wir von Cancel-Culture sprechen?
 Seiden- und FahrradstrassenIhr Gegenüber, buchstäblich wie in der Debatte, war der deutsche Publizist Henryk M. Broder.</t>
-  </si>
-  <si>
-    <t>Zürich: Mai im «Karl der Grosse»</t>
-  </si>
-  <si>
-    <t>Nau.ch</t>
-  </si>
-  <si>
-    <t>Am Podiumsgespräch diskutieren Big Zis (Rapperin), Jürg Halter (Schriftsteller und Lyriker), Ursina Gabriela Roesch (Multimedia Konzept Künstlerin und FATart ...</t>
-  </si>
-  <si>
-    <t>https://www.nau.ch/ort/zurich/zurich-mai-im-karl-der-grosse-65921439</t>
   </si>
   <si>
     <t>flag</t>
@@ -567,19 +319,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -601,17 +346,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -649,34 +389,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Link" xfId="2" builtinId="8"/>
-    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -955,26 +687,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -986,11 +718,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1000,7 +732,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="4">
         <v>44210</v>
       </c>
       <c r="E2" t="s">
@@ -1012,8 +744,11 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1023,7 +758,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>44209</v>
       </c>
       <c r="E3" t="s">
@@ -1035,8 +770,11 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1046,7 +784,7 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>44222</v>
       </c>
       <c r="E4" t="s">
@@ -1058,8 +796,11 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1069,7 +810,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>44216</v>
       </c>
       <c r="E5" t="s">
@@ -1081,8 +822,11 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1092,7 +836,7 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>44224</v>
       </c>
       <c r="E6" t="s">
@@ -1104,8 +848,11 @@
       <c r="G6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1115,7 +862,7 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>44224</v>
       </c>
       <c r="E7" t="s">
@@ -1127,8 +874,11 @@
       <c r="G7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1138,7 +888,7 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>44223</v>
       </c>
       <c r="E8" t="s">
@@ -1150,522 +900,210 @@
       <c r="G8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="7">
-        <v>44223</v>
+        <v>41</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44235</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="7">
-        <v>44223</v>
+        <v>46</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44241</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="8">
-        <v>44223</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="4">
+        <v>44237</v>
+      </c>
+      <c r="E11" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="4">
+        <v>44251</v>
+      </c>
+      <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="7">
-        <v>44235</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44249</v>
+      </c>
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="7">
-        <v>44241</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="G13" t="s">
+      <c r="C14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="4">
+        <v>44256</v>
+      </c>
+      <c r="E14" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="8">
-        <v>44238</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="7">
-        <v>44237</v>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44298.866319826542</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="8">
-        <v>44237</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="G15" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44323.865839902413</v>
+      </c>
+      <c r="E16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="8">
-        <v>44242</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="G16" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="7">
-        <v>44251</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7">
-        <v>44249</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="8">
-        <v>44250</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="8">
-        <v>44245</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="7">
-        <v>44256</v>
-      </c>
-      <c r="E22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="8">
-        <v>44258</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="8">
-        <v>44256</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="7">
-        <v>44298.866679400948</v>
-      </c>
-      <c r="E25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="7">
-        <v>44298.866319826542</v>
-      </c>
-      <c r="E26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="8">
-        <v>44298.866319849702</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="8">
-        <v>44314.866105346191</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="8">
-        <v>44307.866105357767</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="7">
-        <v>44323.865839902413</v>
-      </c>
-      <c r="E30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="7">
-        <v>44322.865839913982</v>
-      </c>
-      <c r="E31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>140</v>
+      <c r="H16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1677,31 +1115,16 @@
     <hyperlink ref="F6" r:id="rId5" xr:uid="{7EEFED4B-667E-4B57-96E3-19656178AFF5}"/>
     <hyperlink ref="F7" r:id="rId6" xr:uid="{5E9ED873-2EBC-4083-9241-6C04BE6371AB}"/>
     <hyperlink ref="F8" r:id="rId7" xr:uid="{BBD166EB-E580-43D3-8989-91D298857525}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{386122BD-2C52-48BD-9D67-63D256B74F65}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{98856594-3B62-4098-A680-574E5595800A}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{10F36AE3-FEC1-4E07-8B39-0FFD47C1E178}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{97175A23-49B5-4B5B-9A54-DD61CCEA703A}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{1D04E2EC-C550-460B-B5D0-B4DCA6FFAD6F}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{3C15F140-4FE0-43AC-8D25-C7E7793BA372}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{23062F7F-05B6-40E5-A04C-539D69E571A8}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{3A8A8C9A-6DA8-4D44-9EE8-28C81948C323}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{C705059A-AD51-4F10-8EFD-78EA2715CC14}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{C7BE2E65-DF7F-4BF8-A5DC-FEE0F604E892}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{49A06331-B276-4D4F-BF23-2FC44E8003A5}"/>
-    <hyperlink ref="F20" r:id="rId19" xr:uid="{9D5515B7-A7A4-4E7D-8876-5BD040656FF4}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{974C50C8-1978-476F-88AE-71025EB662FF}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{8ADB5BCD-D2ED-4143-8804-FF1080F22889}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{D3C02044-2DFD-4360-9B17-FC173D4C53E3}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{E1CBABB4-56E6-479A-BFB9-6C1DE771C3EC}"/>
-    <hyperlink ref="F25" r:id="rId24" xr:uid="{64A223C7-B06F-498D-898A-9344494963F2}"/>
-    <hyperlink ref="F26" r:id="rId25" xr:uid="{1A3AB900-779B-4F32-87E4-173CDC807143}"/>
-    <hyperlink ref="F27" r:id="rId26" xr:uid="{2A652D81-9280-4983-A830-8FF61EB2E8C0}"/>
-    <hyperlink ref="F28" r:id="rId27" xr:uid="{83D48BD7-5435-4A13-9006-250F582B84BC}"/>
-    <hyperlink ref="F29" r:id="rId28" xr:uid="{3BB820E4-5B91-491B-ACA0-A7CABAD84FF8}"/>
-    <hyperlink ref="F30" r:id="rId29" xr:uid="{3B7DD343-A596-4131-BF1F-0BC897A73478}"/>
-    <hyperlink ref="F31" r:id="rId30" xr:uid="{B1BD20FE-9E8D-4AF7-811E-5D77E0B09EB4}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{97175A23-49B5-4B5B-9A54-DD61CCEA703A}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{1D04E2EC-C550-460B-B5D0-B4DCA6FFAD6F}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{23062F7F-05B6-40E5-A04C-539D69E571A8}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{C7BE2E65-DF7F-4BF8-A5DC-FEE0F604E892}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{49A06331-B276-4D4F-BF23-2FC44E8003A5}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{8ADB5BCD-D2ED-4143-8804-FF1080F22889}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{1A3AB900-779B-4F32-87E4-173CDC807143}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{3B7DD343-A596-4131-BF1F-0BC897A73478}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>